--- a/data/pca/factorExposure/factorExposure_2012-01-09.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-01-09.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.01506590467582133</v>
+        <v>0.01504422157513251</v>
       </c>
       <c r="C2">
-        <v>0.03077568183564003</v>
+        <v>0.02587849664325807</v>
       </c>
       <c r="D2">
-        <v>-0.01592871983921441</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.01803408776899933</v>
+      </c>
+      <c r="E2">
+        <v>-0.01387245741706738</v>
+      </c>
+      <c r="F2">
+        <v>0.02536863993082824</v>
+      </c>
+      <c r="G2">
+        <v>-0.0008013322231601817</v>
+      </c>
+      <c r="H2">
+        <v>0.04067634990613633</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.07455390578680943</v>
+        <v>0.08907534503234005</v>
       </c>
       <c r="C4">
-        <v>0.05219308642645631</v>
+        <v>0.03853169775491328</v>
       </c>
       <c r="D4">
-        <v>-0.08347181310528912</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.06805450534109646</v>
+      </c>
+      <c r="E4">
+        <v>-0.009359382286778621</v>
+      </c>
+      <c r="F4">
+        <v>0.03680730101339159</v>
+      </c>
+      <c r="G4">
+        <v>0.001765221106072534</v>
+      </c>
+      <c r="H4">
+        <v>-0.03313178191156103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.1124359466871222</v>
+        <v>0.1231561962922235</v>
       </c>
       <c r="C6">
-        <v>0.04909309953134347</v>
+        <v>0.03379084124268229</v>
       </c>
       <c r="D6">
-        <v>-0.004643927398356121</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.009976782304297447</v>
+      </c>
+      <c r="E6">
+        <v>0.02303298321650559</v>
+      </c>
+      <c r="F6">
+        <v>0.05097469289775799</v>
+      </c>
+      <c r="G6">
+        <v>0.03630951324575141</v>
+      </c>
+      <c r="H6">
+        <v>0.119796284029026</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.05393175970186755</v>
+        <v>0.06354539479402276</v>
       </c>
       <c r="C7">
-        <v>0.0260217064697564</v>
+        <v>0.01409601271058005</v>
       </c>
       <c r="D7">
-        <v>-0.03746946930259303</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.05047496230634003</v>
+      </c>
+      <c r="E7">
+        <v>-0.03448953886673249</v>
+      </c>
+      <c r="F7">
+        <v>0.04377549521511943</v>
+      </c>
+      <c r="G7">
+        <v>-0.03581609137907096</v>
+      </c>
+      <c r="H7">
+        <v>-0.01639699794469973</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.04062550394733231</v>
+        <v>0.04247597067732502</v>
       </c>
       <c r="C8">
-        <v>0.01327109825946605</v>
+        <v>0.009175134604088564</v>
       </c>
       <c r="D8">
-        <v>-0.06056889290903344</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.02454077782677668</v>
+      </c>
+      <c r="E8">
+        <v>-0.01912514726244832</v>
+      </c>
+      <c r="F8">
+        <v>0.06460267143603604</v>
+      </c>
+      <c r="G8">
+        <v>0.05157481130918571</v>
+      </c>
+      <c r="H8">
+        <v>0.01638162762038139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.06927248929011365</v>
+        <v>0.080079876479188</v>
       </c>
       <c r="C9">
-        <v>0.03933915536200908</v>
+        <v>0.02603554035286427</v>
       </c>
       <c r="D9">
-        <v>-0.07534627938049934</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.06268221862936939</v>
+      </c>
+      <c r="E9">
+        <v>-0.02790760433753818</v>
+      </c>
+      <c r="F9">
+        <v>0.02910105445382931</v>
+      </c>
+      <c r="G9">
+        <v>0.01266216227026261</v>
+      </c>
+      <c r="H9">
+        <v>-0.04038889634545515</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.03203304034458925</v>
+        <v>0.04103568668173184</v>
       </c>
       <c r="C10">
-        <v>0.02790987333620708</v>
+        <v>0.05225612047382543</v>
       </c>
       <c r="D10">
-        <v>0.1744192589428833</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.1727395835630133</v>
+      </c>
+      <c r="E10">
+        <v>-0.04139171473588232</v>
+      </c>
+      <c r="F10">
+        <v>0.0555348809542538</v>
+      </c>
+      <c r="G10">
+        <v>-0.02480432284333967</v>
+      </c>
+      <c r="H10">
+        <v>0.035596491621353</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.07206947419142598</v>
+        <v>0.07704624254551982</v>
       </c>
       <c r="C11">
-        <v>0.04149713164823271</v>
+        <v>0.02251053281052021</v>
       </c>
       <c r="D11">
-        <v>-0.05923841465532983</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.06504715355823168</v>
+      </c>
+      <c r="E11">
+        <v>0.005986757265123765</v>
+      </c>
+      <c r="F11">
+        <v>0.03457057182261044</v>
+      </c>
+      <c r="G11">
+        <v>0.0246150857837348</v>
+      </c>
+      <c r="H11">
+        <v>-0.07820081651754066</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.06094345464906884</v>
+        <v>0.06944229474166352</v>
       </c>
       <c r="C12">
-        <v>0.05035299516339255</v>
+        <v>0.03419784692662006</v>
       </c>
       <c r="D12">
-        <v>-0.04668572078327342</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.04873663583996962</v>
+      </c>
+      <c r="E12">
+        <v>-0.01325251715528694</v>
+      </c>
+      <c r="F12">
+        <v>0.02314536938897056</v>
+      </c>
+      <c r="G12">
+        <v>0.01268725026042456</v>
+      </c>
+      <c r="H12">
+        <v>-0.03303226823964874</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.0654007175909527</v>
+        <v>0.06717152341173847</v>
       </c>
       <c r="C13">
-        <v>0.0351648195433877</v>
+        <v>0.02054500660831759</v>
       </c>
       <c r="D13">
-        <v>-0.04858794418783165</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.03953712947629856</v>
+      </c>
+      <c r="E13">
+        <v>-0.01295606186510259</v>
+      </c>
+      <c r="F13">
+        <v>0.02147558255470636</v>
+      </c>
+      <c r="G13">
+        <v>-0.003415908990106201</v>
+      </c>
+      <c r="H13">
+        <v>-0.04855068604387384</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.03289195873868322</v>
+        <v>0.03932245517611817</v>
       </c>
       <c r="C14">
-        <v>0.0318501535777171</v>
+        <v>0.02695332601037982</v>
       </c>
       <c r="D14">
-        <v>0.006320419788994615</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.01382611183736193</v>
+      </c>
+      <c r="E14">
+        <v>-0.03251649901693284</v>
+      </c>
+      <c r="F14">
+        <v>0.01594539664512626</v>
+      </c>
+      <c r="G14">
+        <v>0.01643065160176371</v>
+      </c>
+      <c r="H14">
+        <v>-0.05401383881937042</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.04029317596397076</v>
+        <v>0.03956671423830843</v>
       </c>
       <c r="C15">
-        <v>0.008482292055183688</v>
+        <v>0.001805044799684363</v>
       </c>
       <c r="D15">
-        <v>-0.02272883671121437</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.008488660549792248</v>
+      </c>
+      <c r="E15">
+        <v>-0.03737449899433942</v>
+      </c>
+      <c r="F15">
+        <v>0.0007024358360456801</v>
+      </c>
+      <c r="G15">
+        <v>0.02771314914467069</v>
+      </c>
+      <c r="H15">
+        <v>-0.02912159426034628</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.0610084627954881</v>
+        <v>0.0713830348018361</v>
       </c>
       <c r="C16">
-        <v>0.03891973638258701</v>
+        <v>0.02447135595800608</v>
       </c>
       <c r="D16">
-        <v>-0.05098651971607255</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.06193944062936938</v>
+      </c>
+      <c r="E16">
+        <v>-0.005808623653999093</v>
+      </c>
+      <c r="F16">
+        <v>0.03146602411206866</v>
+      </c>
+      <c r="G16">
+        <v>0.01336841174399757</v>
+      </c>
+      <c r="H16">
+        <v>-0.05249092820620876</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1159,22 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1185,204 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.06358876455083547</v>
+        <v>0.06271348377776421</v>
       </c>
       <c r="C20">
-        <v>0.02321914910735207</v>
+        <v>0.007293773368434543</v>
       </c>
       <c r="D20">
-        <v>-0.04832788138186028</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.03983631955897512</v>
+      </c>
+      <c r="E20">
+        <v>-0.0175017024754778</v>
+      </c>
+      <c r="F20">
+        <v>0.02790577352228683</v>
+      </c>
+      <c r="G20">
+        <v>0.01824999523635361</v>
+      </c>
+      <c r="H20">
+        <v>-0.04315251907475041</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.02670866348045307</v>
+        <v>0.02681943265380607</v>
       </c>
       <c r="C21">
-        <v>-0.001384554802772682</v>
+        <v>-0.008702844248207062</v>
       </c>
       <c r="D21">
-        <v>-0.02146915938919393</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.02308731511991003</v>
+      </c>
+      <c r="E21">
+        <v>-0.04431700987760518</v>
+      </c>
+      <c r="F21">
+        <v>-0.00959080202607873</v>
+      </c>
+      <c r="G21">
+        <v>0.004115862628427536</v>
+      </c>
+      <c r="H21">
+        <v>0.04694313016694407</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.07846493975321339</v>
+        <v>0.06861466065088824</v>
       </c>
       <c r="C22">
-        <v>0.05799608464938465</v>
+        <v>0.03236163469040007</v>
       </c>
       <c r="D22">
-        <v>-0.1431960038325683</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.09776124592446532</v>
+      </c>
+      <c r="E22">
+        <v>-0.5987013781526391</v>
+      </c>
+      <c r="F22">
+        <v>-0.1084828988149754</v>
+      </c>
+      <c r="G22">
+        <v>-0.1361343365497742</v>
+      </c>
+      <c r="H22">
+        <v>0.1423329184755866</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.07943608238888916</v>
+        <v>0.06952539560294035</v>
       </c>
       <c r="C23">
-        <v>0.05670861834500938</v>
+        <v>0.03108792692321261</v>
       </c>
       <c r="D23">
-        <v>-0.144549455827902</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.09881002866620579</v>
+      </c>
+      <c r="E23">
+        <v>-0.600928252603782</v>
+      </c>
+      <c r="F23">
+        <v>-0.1079495315981979</v>
+      </c>
+      <c r="G23">
+        <v>-0.1316798224533801</v>
+      </c>
+      <c r="H23">
+        <v>0.1369269678356726</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.07571034470210378</v>
+        <v>0.08020299688558635</v>
       </c>
       <c r="C24">
-        <v>0.04999843356953915</v>
+        <v>0.02968932380485501</v>
       </c>
       <c r="D24">
-        <v>-0.06311274706681128</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.06374402132800538</v>
+      </c>
+      <c r="E24">
+        <v>-0.01448796239288987</v>
+      </c>
+      <c r="F24">
+        <v>0.03896080772191624</v>
+      </c>
+      <c r="G24">
+        <v>0.02327367048747831</v>
+      </c>
+      <c r="H24">
+        <v>-0.03999855883934963</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.07471680181625817</v>
+        <v>0.07886828260259772</v>
       </c>
       <c r="C25">
-        <v>0.05272080369231238</v>
+        <v>0.03389959130236766</v>
       </c>
       <c r="D25">
-        <v>-0.0666307618878617</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.05236573840498574</v>
+      </c>
+      <c r="E25">
+        <v>-0.02181064956900163</v>
+      </c>
+      <c r="F25">
+        <v>0.03237219213218946</v>
+      </c>
+      <c r="G25">
+        <v>0.03451194003356303</v>
+      </c>
+      <c r="H25">
+        <v>-0.04510845143279961</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.04463346564142181</v>
+        <v>0.04631210635694936</v>
       </c>
       <c r="C26">
-        <v>0.00860459010928841</v>
+        <v>0.0002856051353311927</v>
       </c>
       <c r="D26">
-        <v>-0.01481461609339794</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.01898322671496663</v>
+      </c>
+      <c r="E26">
+        <v>-0.04181847501798105</v>
+      </c>
+      <c r="F26">
+        <v>0.03775760432425146</v>
+      </c>
+      <c r="G26">
+        <v>0.0006960311641481544</v>
+      </c>
+      <c r="H26">
+        <v>-0.05038903145590974</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.05391126400405136</v>
+        <v>0.06909061846285815</v>
       </c>
       <c r="C28">
-        <v>0.07128994787209458</v>
+        <v>0.1061228503267381</v>
       </c>
       <c r="D28">
-        <v>0.3013755068688477</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.2996188519932698</v>
+      </c>
+      <c r="E28">
+        <v>-0.03478844268051319</v>
+      </c>
+      <c r="F28">
+        <v>0.0628726500565028</v>
+      </c>
+      <c r="G28">
+        <v>0.0274587051816615</v>
+      </c>
+      <c r="H28">
+        <v>0.04322199803484252</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.0438359524108251</v>
+        <v>0.04796740064785214</v>
       </c>
       <c r="C29">
-        <v>0.02941712576087882</v>
+        <v>0.0239377339886396</v>
       </c>
       <c r="D29">
-        <v>-0.007658133155980693</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.01052511818180424</v>
+      </c>
+      <c r="E29">
+        <v>-0.06408279915970799</v>
+      </c>
+      <c r="F29">
+        <v>0.01366512415473103</v>
+      </c>
+      <c r="G29">
+        <v>0.002904258120327059</v>
+      </c>
+      <c r="H29">
+        <v>-0.0724858228049481</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.1285637192691968</v>
+        <v>0.1278818127019496</v>
       </c>
       <c r="C30">
-        <v>0.08476304324924534</v>
+        <v>0.05466489792577461</v>
       </c>
       <c r="D30">
-        <v>-0.1052614402354503</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.07666450944724475</v>
+      </c>
+      <c r="E30">
+        <v>-0.07974716770292335</v>
+      </c>
+      <c r="F30">
+        <v>0.02018487983705666</v>
+      </c>
+      <c r="G30">
+        <v>0.06905869394361949</v>
+      </c>
+      <c r="H30">
+        <v>0.06833571814653316</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.04659350860816563</v>
+        <v>0.04931636710881875</v>
       </c>
       <c r="C31">
-        <v>0.02248251117247212</v>
+        <v>0.01190318624297004</v>
       </c>
       <c r="D31">
-        <v>-0.02617088697982872</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.0325348985931724</v>
+      </c>
+      <c r="E31">
+        <v>-0.02440885184816442</v>
+      </c>
+      <c r="F31">
+        <v>0.005684946792599618</v>
+      </c>
+      <c r="G31">
+        <v>-0.01579834325409253</v>
+      </c>
+      <c r="H31">
+        <v>-0.06531500007518806</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.03839998785698412</v>
+        <v>0.03969155875930161</v>
       </c>
       <c r="C32">
-        <v>0.02370135691124768</v>
+        <v>0.02096383122677691</v>
       </c>
       <c r="D32">
-        <v>-0.02399990790290172</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.009646021438551146</v>
+      </c>
+      <c r="E32">
+        <v>-0.05604772890157648</v>
+      </c>
+      <c r="F32">
+        <v>-0.009608080758327506</v>
+      </c>
+      <c r="G32">
+        <v>0.03714624956302398</v>
+      </c>
+      <c r="H32">
+        <v>-0.0318429098583084</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.08559602787309084</v>
+        <v>0.09420381182780496</v>
       </c>
       <c r="C33">
-        <v>0.03817932746459206</v>
+        <v>0.02046679132480842</v>
       </c>
       <c r="D33">
-        <v>-0.05538568284033629</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.04747144550103139</v>
+      </c>
+      <c r="E33">
+        <v>-0.01764438727562547</v>
+      </c>
+      <c r="F33">
+        <v>0.009925502383727582</v>
+      </c>
+      <c r="G33">
+        <v>0.003961922272713224</v>
+      </c>
+      <c r="H33">
+        <v>-0.0580374857309183</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.0591683815875727</v>
+        <v>0.06393735514463218</v>
       </c>
       <c r="C34">
-        <v>0.02456307190258614</v>
+        <v>0.009193270824387343</v>
       </c>
       <c r="D34">
-        <v>-0.05456278503504282</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.05010970260025362</v>
+      </c>
+      <c r="E34">
+        <v>-0.009939782010628241</v>
+      </c>
+      <c r="F34">
+        <v>0.02226473572873718</v>
+      </c>
+      <c r="G34">
+        <v>0.01416579878401661</v>
+      </c>
+      <c r="H34">
+        <v>-0.05587681510128122</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>-0.0363757315030123</v>
+        <v>0.03831237400322355</v>
       </c>
       <c r="C35">
-        <v>0.007069255233055317</v>
+        <v>0.001318875168894277</v>
       </c>
       <c r="D35">
-        <v>-0.01772783584866366</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01422342842596581</v>
+      </c>
+      <c r="E35">
+        <v>-0.0215741675073193</v>
+      </c>
+      <c r="F35">
+        <v>-0.01812971254609438</v>
+      </c>
+      <c r="G35">
+        <v>-0.006020963606193086</v>
+      </c>
+      <c r="H35">
+        <v>-0.01971664040406958</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.02427305453064297</v>
+        <v>0.02896273765789187</v>
       </c>
       <c r="C36">
-        <v>0.01753626222270177</v>
+        <v>0.01386429966471069</v>
       </c>
       <c r="D36">
-        <v>-0.02257384661125898</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.01689724765149293</v>
+      </c>
+      <c r="E36">
+        <v>-0.03074620972549376</v>
+      </c>
+      <c r="F36">
+        <v>0.02531260751146049</v>
+      </c>
+      <c r="G36">
+        <v>-0.004004253251044679</v>
+      </c>
+      <c r="H36">
+        <v>-0.04114445729042517</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.04330412060542111</v>
+        <v>0.04438116657562708</v>
       </c>
       <c r="C38">
-        <v>0.001925785171587619</v>
+        <v>-0.005402622490184235</v>
       </c>
       <c r="D38">
-        <v>-0.02184811251005766</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.02158954253092845</v>
+      </c>
+      <c r="E38">
+        <v>-0.05324056873360854</v>
+      </c>
+      <c r="F38">
+        <v>-0.008273209874347841</v>
+      </c>
+      <c r="G38">
+        <v>0.004406676762809927</v>
+      </c>
+      <c r="H38">
+        <v>-0.0235844343656531</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.09217553753979849</v>
+        <v>0.1004574565064247</v>
       </c>
       <c r="C39">
-        <v>0.06702845797971969</v>
+        <v>0.04583017540493802</v>
       </c>
       <c r="D39">
-        <v>-0.05919002381163812</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.06717492844060272</v>
+      </c>
+      <c r="E39">
+        <v>-0.006976865008654728</v>
+      </c>
+      <c r="F39">
+        <v>0.0006310556477303317</v>
+      </c>
+      <c r="G39">
+        <v>0.04709053253125327</v>
+      </c>
+      <c r="H39">
+        <v>-0.02946454917658916</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.07989896190161819</v>
+        <v>0.0636510349394072</v>
       </c>
       <c r="C40">
-        <v>0.0344553852325547</v>
+        <v>0.006385832072048316</v>
       </c>
       <c r="D40">
-        <v>-0.008994134109293787</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03101495683864002</v>
+      </c>
+      <c r="E40">
+        <v>-0.04383009908101312</v>
+      </c>
+      <c r="F40">
+        <v>-0.04220839418159289</v>
+      </c>
+      <c r="G40">
+        <v>0.02646218937718338</v>
+      </c>
+      <c r="H40">
+        <v>0.1087633866337868</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.0434885681972568</v>
+        <v>0.04531914426201685</v>
       </c>
       <c r="C41">
-        <v>0.005314155892580754</v>
+        <v>-0.004725966826387631</v>
       </c>
       <c r="D41">
-        <v>-0.03774639238080914</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.03295120254205879</v>
+      </c>
+      <c r="E41">
+        <v>-0.003595773363387935</v>
+      </c>
+      <c r="F41">
+        <v>-0.01417804911802964</v>
+      </c>
+      <c r="G41">
+        <v>0.01407237814205395</v>
+      </c>
+      <c r="H41">
+        <v>-0.0265133296781781</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.05278177794862674</v>
+        <v>0.06001185364301723</v>
       </c>
       <c r="C43">
-        <v>0.02565241992796326</v>
+        <v>0.01611888797173959</v>
       </c>
       <c r="D43">
-        <v>-0.01629309581256942</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.02862035209774741</v>
+      </c>
+      <c r="E43">
+        <v>-0.02365797890073956</v>
+      </c>
+      <c r="F43">
+        <v>0.01300100502984067</v>
+      </c>
+      <c r="G43">
+        <v>-0.0142429511105195</v>
+      </c>
+      <c r="H43">
+        <v>-0.06565558337814406</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.09686033611488301</v>
+        <v>0.09456649839460617</v>
       </c>
       <c r="C44">
-        <v>0.08295197204787544</v>
+        <v>0.05460736169303949</v>
       </c>
       <c r="D44">
-        <v>-0.0753941408643195</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.06830518899155964</v>
+      </c>
+      <c r="E44">
+        <v>-0.07462321386787625</v>
+      </c>
+      <c r="F44">
+        <v>0.07918906682672294</v>
+      </c>
+      <c r="G44">
+        <v>0.02616524277225783</v>
+      </c>
+      <c r="H44">
+        <v>-0.04326603715055758</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.02736129454641253</v>
+        <v>0.03534542939910842</v>
       </c>
       <c r="C46">
-        <v>0.01574549217970893</v>
+        <v>0.01089417952362955</v>
       </c>
       <c r="D46">
-        <v>-0.03098223255433749</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.03589594782721647</v>
+      </c>
+      <c r="E46">
+        <v>-0.03431819796275201</v>
+      </c>
+      <c r="F46">
+        <v>0.01355481907050912</v>
+      </c>
+      <c r="G46">
+        <v>0.002786780763329904</v>
+      </c>
+      <c r="H46">
+        <v>-0.02485440464497052</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.034780180453029</v>
+        <v>0.04078867462641515</v>
       </c>
       <c r="C47">
-        <v>0.02296495900040524</v>
+        <v>0.0182723799165462</v>
       </c>
       <c r="D47">
-        <v>-0.001451967953537475</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.006374343344332675</v>
+      </c>
+      <c r="E47">
+        <v>-0.0440290463870228</v>
+      </c>
+      <c r="F47">
+        <v>-0.01029120574401328</v>
+      </c>
+      <c r="G47">
+        <v>-0.02867186357879593</v>
+      </c>
+      <c r="H47">
+        <v>-0.02314745859421488</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.03516382612803468</v>
+        <v>0.0384210111660373</v>
       </c>
       <c r="C48">
-        <v>0.01786972030943613</v>
+        <v>0.01024275000912942</v>
       </c>
       <c r="D48">
-        <v>-0.0338273134115508</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.02102781915362861</v>
+      </c>
+      <c r="E48">
+        <v>-0.04213165592803763</v>
+      </c>
+      <c r="F48">
+        <v>0.009969247771878938</v>
+      </c>
+      <c r="G48">
+        <v>0.01756692776494786</v>
+      </c>
+      <c r="H48">
+        <v>-0.02972869365579015</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>-0.1643016204774629</v>
+        <v>0.1922342330167853</v>
       </c>
       <c r="C49">
-        <v>0.04895216636777606</v>
+        <v>0.02752286074842302</v>
       </c>
       <c r="D49">
-        <v>0.0005566345071235248</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.03453898223795344</v>
+      </c>
+      <c r="E49">
+        <v>0.1748565802065389</v>
+      </c>
+      <c r="F49">
+        <v>0.05431264597864853</v>
+      </c>
+      <c r="G49">
+        <v>-0.09862984006561333</v>
+      </c>
+      <c r="H49">
+        <v>0.2307954114935548</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.04132678577253479</v>
+        <v>0.04569791093416385</v>
       </c>
       <c r="C50">
-        <v>0.01895631133351779</v>
+        <v>0.01067306565793406</v>
       </c>
       <c r="D50">
-        <v>-0.04657161806960339</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.03804324484475723</v>
+      </c>
+      <c r="E50">
+        <v>-0.04084886654724378</v>
+      </c>
+      <c r="F50">
+        <v>0.007105321331963251</v>
+      </c>
+      <c r="G50">
+        <v>-0.00863674727285299</v>
+      </c>
+      <c r="H50">
+        <v>-0.06860396384607988</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.02892199118092111</v>
+        <v>0.03297933371046082</v>
       </c>
       <c r="C51">
-        <v>0.01083213384748379</v>
+        <v>0.00589397020304353</v>
       </c>
       <c r="D51">
-        <v>-0.002644623024601113</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.004041291348627749</v>
+      </c>
+      <c r="E51">
+        <v>-0.008014149689483338</v>
+      </c>
+      <c r="F51">
+        <v>0.01014901737306018</v>
+      </c>
+      <c r="G51">
+        <v>-0.009338690969028016</v>
+      </c>
+      <c r="H51">
+        <v>0.0120617664666636</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1570736502020019</v>
+        <v>0.1618235308292866</v>
       </c>
       <c r="C53">
-        <v>0.07090704629308192</v>
+        <v>0.0449304348938528</v>
       </c>
       <c r="D53">
-        <v>-0.001545071877137425</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.02414083718861679</v>
+      </c>
+      <c r="E53">
+        <v>0.03473874252794028</v>
+      </c>
+      <c r="F53">
+        <v>-0.0005258795889224945</v>
+      </c>
+      <c r="G53">
+        <v>0.0038306074907768</v>
+      </c>
+      <c r="H53">
+        <v>-0.1970215884105182</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.05683680208030233</v>
+        <v>0.0581151214426034</v>
       </c>
       <c r="C54">
-        <v>0.02146467275116674</v>
+        <v>0.0123752397432896</v>
       </c>
       <c r="D54">
-        <v>-0.01628422497579328</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.01440231963247522</v>
+      </c>
+      <c r="E54">
+        <v>-0.05614543931435098</v>
+      </c>
+      <c r="F54">
+        <v>0.0112622070054981</v>
+      </c>
+      <c r="G54">
+        <v>0.04131842010722959</v>
+      </c>
+      <c r="H54">
+        <v>-0.04191265850242741</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.1005928430357578</v>
+        <v>0.1041360995253348</v>
       </c>
       <c r="C55">
-        <v>0.04851264577200085</v>
+        <v>0.03081261075395966</v>
       </c>
       <c r="D55">
-        <v>-0.02518678461223279</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.02917410300098626</v>
+      </c>
+      <c r="E55">
+        <v>-0.006500661913867174</v>
+      </c>
+      <c r="F55">
+        <v>0.009499194572454395</v>
+      </c>
+      <c r="G55">
+        <v>0.01016952187531708</v>
+      </c>
+      <c r="H55">
+        <v>-0.1539161350720545</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1526491376586498</v>
+        <v>0.1600663728724134</v>
       </c>
       <c r="C56">
-        <v>0.08171782250535795</v>
+        <v>0.05416441483608621</v>
       </c>
       <c r="D56">
-        <v>-0.01220068061306795</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.03636491422093819</v>
+      </c>
+      <c r="E56">
+        <v>0.01924313314772098</v>
+      </c>
+      <c r="F56">
+        <v>0.01992115565968626</v>
+      </c>
+      <c r="G56">
+        <v>-0.0007473758004919286</v>
+      </c>
+      <c r="H56">
+        <v>-0.1986173246823375</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2173,1010 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.131598353703274</v>
+        <v>0.09936452517700968</v>
       </c>
       <c r="C58">
-        <v>-0.006119643485347583</v>
+        <v>-0.049062113217692</v>
       </c>
       <c r="D58">
-        <v>-0.0210983333013078</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.03320094802644661</v>
+      </c>
+      <c r="E58">
+        <v>-0.144532586987442</v>
+      </c>
+      <c r="F58">
+        <v>0.004947785644866644</v>
+      </c>
+      <c r="G58">
+        <v>-0.08014078040244219</v>
+      </c>
+      <c r="H58">
+        <v>0.2097418364089126</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.1274138040480906</v>
+        <v>0.1456204602116987</v>
       </c>
       <c r="C59">
-        <v>0.07847453184415711</v>
+        <v>0.1114163281104052</v>
       </c>
       <c r="D59">
-        <v>0.3807520498121146</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.3554025364286309</v>
+      </c>
+      <c r="E59">
+        <v>-0.03285179610547703</v>
+      </c>
+      <c r="F59">
+        <v>0.003560103168439983</v>
+      </c>
+      <c r="G59">
+        <v>-0.01559305101820238</v>
+      </c>
+      <c r="H59">
+        <v>-0.01003363644117244</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.2094623930892179</v>
+        <v>0.23888400388145</v>
       </c>
       <c r="C60">
-        <v>0.08933391753147273</v>
+        <v>0.05964699766704901</v>
       </c>
       <c r="D60">
-        <v>-0.02026995185677319</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.04576760399244082</v>
+      </c>
+      <c r="E60">
+        <v>0.1167177393645878</v>
+      </c>
+      <c r="F60">
+        <v>0.05743433787759898</v>
+      </c>
+      <c r="G60">
+        <v>-0.00661214177129685</v>
+      </c>
+      <c r="H60">
+        <v>0.148862006296187</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.08246515139708248</v>
+        <v>0.08817028379041363</v>
       </c>
       <c r="C61">
-        <v>0.04715186998088134</v>
+        <v>0.03080922306515388</v>
       </c>
       <c r="D61">
-        <v>-0.03516223551028835</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.04277926970394523</v>
+      </c>
+      <c r="E61">
+        <v>-0.006718244137741389</v>
+      </c>
+      <c r="F61">
+        <v>0.0001080074617888913</v>
+      </c>
+      <c r="G61">
+        <v>0.01227327535420676</v>
+      </c>
+      <c r="H61">
+        <v>-0.06550973064154121</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>-0.1300142530525505</v>
+        <v>0.1359664842625705</v>
       </c>
       <c r="C62">
-        <v>0.05501357133221682</v>
+        <v>0.02915430753113584</v>
       </c>
       <c r="D62">
-        <v>-0.02046874676190184</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.0451051704299261</v>
+      </c>
+      <c r="E62">
+        <v>0.05886063699812453</v>
+      </c>
+      <c r="F62">
+        <v>-0.007219912327994795</v>
+      </c>
+      <c r="G62">
+        <v>0.05319488899293497</v>
+      </c>
+      <c r="H62">
+        <v>-0.2094593943386318</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.05224877458439608</v>
+        <v>0.05224768017136533</v>
       </c>
       <c r="C63">
-        <v>0.02288777947351612</v>
+        <v>0.01371613751487713</v>
       </c>
       <c r="D63">
-        <v>-0.0269738240700712</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.02029519457138703</v>
+      </c>
+      <c r="E63">
+        <v>-0.04812824641864741</v>
+      </c>
+      <c r="F63">
+        <v>-0.002523302969906289</v>
+      </c>
+      <c r="G63">
+        <v>0.02304707086608943</v>
+      </c>
+      <c r="H63">
+        <v>-0.03682376800105978</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.1051914141831238</v>
+        <v>0.1095079130034326</v>
       </c>
       <c r="C64">
-        <v>0.02794468403794364</v>
+        <v>0.01310682985251129</v>
       </c>
       <c r="D64">
-        <v>-0.03495157277373932</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.02800962182599224</v>
+      </c>
+      <c r="E64">
+        <v>-0.03635148617630287</v>
+      </c>
+      <c r="F64">
+        <v>0.04332217459309988</v>
+      </c>
+      <c r="G64">
+        <v>0.05700374221977372</v>
+      </c>
+      <c r="H64">
+        <v>-0.02879023098336655</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.1303049802332789</v>
+        <v>0.1313151003055048</v>
       </c>
       <c r="C65">
-        <v>0.0571072621772854</v>
+        <v>0.0394338780755038</v>
       </c>
       <c r="D65">
-        <v>-0.004157969177521304</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.009550823939646159</v>
+      </c>
+      <c r="E65">
+        <v>0.005385908685943633</v>
+      </c>
+      <c r="F65">
+        <v>0.05837689991261382</v>
+      </c>
+      <c r="G65">
+        <v>0.06219662619721757</v>
+      </c>
+      <c r="H65">
+        <v>0.1506267098949859</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.1494536894705494</v>
+        <v>0.1522615352088933</v>
       </c>
       <c r="C66">
-        <v>0.06488217557743703</v>
+        <v>0.03228404157219038</v>
       </c>
       <c r="D66">
-        <v>-0.1008692322522742</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1001239282374119</v>
+      </c>
+      <c r="E66">
+        <v>0.02022439594892629</v>
+      </c>
+      <c r="F66">
+        <v>0.002797430533309978</v>
+      </c>
+      <c r="G66">
+        <v>0.05946283546911477</v>
+      </c>
+      <c r="H66">
+        <v>-0.09293407920057246</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.07599743760125381</v>
+        <v>0.08477204251521972</v>
       </c>
       <c r="C67">
-        <v>0.008864217853229764</v>
+        <v>-0.001846185284063191</v>
       </c>
       <c r="D67">
-        <v>-0.0243395450731398</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.03312756813546928</v>
+      </c>
+      <c r="E67">
+        <v>-0.0180765170226303</v>
+      </c>
+      <c r="F67">
+        <v>0.01325893338113756</v>
+      </c>
+      <c r="G67">
+        <v>-0.01032880253114918</v>
+      </c>
+      <c r="H67">
+        <v>-0.03353847949239414</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.06112575485212604</v>
+        <v>0.06401607248338156</v>
       </c>
       <c r="C68">
-        <v>0.05090850377201152</v>
+        <v>0.0798660272375324</v>
       </c>
       <c r="D68">
-        <v>0.2539112758346491</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.2649414691637363</v>
+      </c>
+      <c r="E68">
+        <v>-0.04085718115420705</v>
+      </c>
+      <c r="F68">
+        <v>0.01305481174850504</v>
+      </c>
+      <c r="G68">
+        <v>-0.009726639911503085</v>
+      </c>
+      <c r="H68">
+        <v>-0.01263506595823746</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.05275879388554641</v>
+        <v>0.05230505916445742</v>
       </c>
       <c r="C69">
-        <v>0.01471942268670439</v>
+        <v>0.003013040298971125</v>
       </c>
       <c r="D69">
-        <v>-0.02622601581070563</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01981633231434329</v>
+      </c>
+      <c r="E69">
+        <v>-0.0264099265741019</v>
+      </c>
+      <c r="F69">
+        <v>-0.01410980535693899</v>
+      </c>
+      <c r="G69">
+        <v>-0.004536825897488161</v>
+      </c>
+      <c r="H69">
+        <v>-0.04848037431552277</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>-0.002505701293344151</v>
+        <v>0.02677842614587337</v>
       </c>
       <c r="C70">
-        <v>-0.008479909738987637</v>
+        <v>-0.00318517841576949</v>
       </c>
       <c r="D70">
-        <v>0.01258040402821672</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.006855162275076146</v>
+      </c>
+      <c r="E70">
+        <v>0.02232993312392264</v>
+      </c>
+      <c r="F70">
+        <v>0.008496100443590658</v>
+      </c>
+      <c r="G70">
+        <v>-0.02526767626527562</v>
+      </c>
+      <c r="H70">
+        <v>0.0151986595362449</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.05904499666762796</v>
+        <v>0.06804818492380166</v>
       </c>
       <c r="C71">
-        <v>0.05071202563767343</v>
+        <v>0.08774229072521311</v>
       </c>
       <c r="D71">
-        <v>0.2917336336544045</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.2924671822308925</v>
+      </c>
+      <c r="E71">
+        <v>-0.03829437576790194</v>
+      </c>
+      <c r="F71">
+        <v>0.04389796931586434</v>
+      </c>
+      <c r="G71">
+        <v>-0.005572946323302081</v>
+      </c>
+      <c r="H71">
+        <v>-0.0109047882015799</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1425252457401891</v>
+        <v>0.1446569634955776</v>
       </c>
       <c r="C72">
-        <v>0.05684087635312466</v>
+        <v>0.0313161217885001</v>
       </c>
       <c r="D72">
-        <v>-0.001807341370252232</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.001834693684233864</v>
+      </c>
+      <c r="E72">
+        <v>0.06555736405073974</v>
+      </c>
+      <c r="F72">
+        <v>-0.1581145591585971</v>
+      </c>
+      <c r="G72">
+        <v>0.1156569963899942</v>
+      </c>
+      <c r="H72">
+        <v>0.01762050414623006</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2863429357249615</v>
+        <v>0.2870274043478602</v>
       </c>
       <c r="C73">
-        <v>0.08776056916429319</v>
+        <v>0.02205060966436868</v>
       </c>
       <c r="D73">
-        <v>-0.03905571637809397</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.09999002224776926</v>
+      </c>
+      <c r="E73">
+        <v>0.2370820874772106</v>
+      </c>
+      <c r="F73">
+        <v>0.07686816526258392</v>
+      </c>
+      <c r="G73">
+        <v>-0.2183326192775246</v>
+      </c>
+      <c r="H73">
+        <v>0.4645699338954623</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.08338585961783659</v>
+        <v>0.09179402677322726</v>
       </c>
       <c r="C74">
-        <v>0.07478001381700244</v>
+        <v>0.05605912109459426</v>
       </c>
       <c r="D74">
-        <v>-0.009786416639884398</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.03871637098559268</v>
+      </c>
+      <c r="E74">
+        <v>0.005820912739565556</v>
+      </c>
+      <c r="F74">
+        <v>-0.006079743868087395</v>
+      </c>
+      <c r="G74">
+        <v>-0.03225392824662603</v>
+      </c>
+      <c r="H74">
+        <v>-0.1257747282227811</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.1001731465426806</v>
+        <v>0.1036771017860235</v>
       </c>
       <c r="C75">
-        <v>0.04766187969087492</v>
+        <v>0.02360519778262628</v>
       </c>
       <c r="D75">
-        <v>-0.01266260153499415</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.02469683944952483</v>
+      </c>
+      <c r="E75">
+        <v>0.003665988804700048</v>
+      </c>
+      <c r="F75">
+        <v>0.002341623586222942</v>
+      </c>
+      <c r="G75">
+        <v>-0.009978030386898857</v>
+      </c>
+      <c r="H75">
+        <v>-0.1104897510617788</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.1341110603206005</v>
+        <v>0.143640142358943</v>
       </c>
       <c r="C76">
-        <v>0.07661124283961809</v>
+        <v>0.0523963093294702</v>
       </c>
       <c r="D76">
-        <v>-0.03231695088609237</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.0502325337733516</v>
+      </c>
+      <c r="E76">
+        <v>-0.01510936418236318</v>
+      </c>
+      <c r="F76">
+        <v>0.03266953658628689</v>
+      </c>
+      <c r="G76">
+        <v>0.006122542831431489</v>
+      </c>
+      <c r="H76">
+        <v>-0.2181334867877286</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.1173897357301397</v>
+        <v>0.1042194762478155</v>
       </c>
       <c r="C77">
-        <v>0.008092259289145691</v>
+        <v>-0.02097561454485681</v>
       </c>
       <c r="D77">
-        <v>-0.08673898917734039</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.03706252753196435</v>
+      </c>
+      <c r="E77">
+        <v>-0.05773309192490669</v>
+      </c>
+      <c r="F77">
+        <v>0.109539161534106</v>
+      </c>
+      <c r="G77">
+        <v>0.8465514272363929</v>
+      </c>
+      <c r="H77">
+        <v>0.2333721665180086</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.1077096114557331</v>
+        <v>0.1503025435884477</v>
       </c>
       <c r="C78">
-        <v>0.03372931546853872</v>
+        <v>0.02946750938750234</v>
       </c>
       <c r="D78">
-        <v>-0.09144959942887364</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.07880697354124898</v>
+      </c>
+      <c r="E78">
+        <v>-0.04971835808472714</v>
+      </c>
+      <c r="F78">
+        <v>0.06892155256124623</v>
+      </c>
+      <c r="G78">
+        <v>0.06733883993208402</v>
+      </c>
+      <c r="H78">
+        <v>0.06125712132292357</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.1492039058249853</v>
+        <v>0.1495869193727264</v>
       </c>
       <c r="C79">
-        <v>0.06741816561334331</v>
+        <v>0.03575430226658161</v>
       </c>
       <c r="D79">
-        <v>-0.02420723388739368</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.03770198105501407</v>
+      </c>
+      <c r="E79">
+        <v>0.01938854206006383</v>
+      </c>
+      <c r="F79">
+        <v>0.01401986879304946</v>
+      </c>
+      <c r="G79">
+        <v>-0.003524424515196093</v>
+      </c>
+      <c r="H79">
+        <v>-0.1679019008742172</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.04123120735325964</v>
+        <v>0.0418418534406186</v>
       </c>
       <c r="C80">
-        <v>0.01936122510160273</v>
+        <v>0.01223617474851835</v>
       </c>
       <c r="D80">
-        <v>-0.03131893570301473</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.01666020626212589</v>
+      </c>
+      <c r="E80">
+        <v>0.03068381524836664</v>
+      </c>
+      <c r="F80">
+        <v>0.003233143128110913</v>
+      </c>
+      <c r="G80">
+        <v>-0.02525437491818329</v>
+      </c>
+      <c r="H80">
+        <v>-0.03252793083922711</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1214340222175359</v>
+        <v>0.1225163691782574</v>
       </c>
       <c r="C81">
-        <v>0.05687304184611782</v>
+        <v>0.03184371577923145</v>
       </c>
       <c r="D81">
-        <v>-0.03280241713374929</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.0316319816159422</v>
+      </c>
+      <c r="E81">
+        <v>-0.005926908823786869</v>
+      </c>
+      <c r="F81">
+        <v>0.004360474248597806</v>
+      </c>
+      <c r="G81">
+        <v>-0.03016405197959378</v>
+      </c>
+      <c r="H81">
+        <v>-0.1539690600637065</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.1328329786484896</v>
+        <v>0.1321777736535201</v>
       </c>
       <c r="C82">
-        <v>0.0701609097791179</v>
+        <v>0.04491902247560008</v>
       </c>
       <c r="D82">
-        <v>-0.01176317625201098</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.03516915641427226</v>
+      </c>
+      <c r="E82">
+        <v>0.02365329503286175</v>
+      </c>
+      <c r="F82">
+        <v>0.04170525690255499</v>
+      </c>
+      <c r="G82">
+        <v>-0.02062922758088718</v>
+      </c>
+      <c r="H82">
+        <v>-0.2328919841665609</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.06938760832453511</v>
+        <v>0.08322011099426213</v>
       </c>
       <c r="C83">
-        <v>-0.02731057728617103</v>
+        <v>-0.0381197086157466</v>
       </c>
       <c r="D83">
-        <v>-0.01329688329100452</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.02048518286294578</v>
+      </c>
+      <c r="E83">
+        <v>-0.02163078630702173</v>
+      </c>
+      <c r="F83">
+        <v>0.04475860812974809</v>
+      </c>
+      <c r="G83">
+        <v>-0.0695770471603087</v>
+      </c>
+      <c r="H83">
+        <v>0.03133274386640723</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>-0.02949514697705723</v>
+        <v>0.03837467178395327</v>
       </c>
       <c r="C84">
-        <v>0.0278489891938908</v>
+        <v>0.02201096276906083</v>
       </c>
       <c r="D84">
-        <v>-0.03413463227848978</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.03188512196547332</v>
+      </c>
+      <c r="E84">
+        <v>-0.03152275653524515</v>
+      </c>
+      <c r="F84">
+        <v>-0.04670805840764308</v>
+      </c>
+      <c r="G84">
+        <v>-0.05830307908345041</v>
+      </c>
+      <c r="H84">
+        <v>-0.00800910250624704</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.1175085190357607</v>
+        <v>0.120489956230108</v>
       </c>
       <c r="C85">
-        <v>0.04129336352209176</v>
+        <v>0.01793587901783723</v>
       </c>
       <c r="D85">
-        <v>-0.04822632320978621</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.03902360468877292</v>
+      </c>
+      <c r="E85">
+        <v>-0.01509173780809012</v>
+      </c>
+      <c r="F85">
+        <v>0.02706757055607768</v>
+      </c>
+      <c r="G85">
+        <v>-0.0132214219751589</v>
+      </c>
+      <c r="H85">
+        <v>-0.1493777449535149</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.0534111522389343</v>
+        <v>0.05617564767627505</v>
       </c>
       <c r="C86">
-        <v>0.02117345474421993</v>
+        <v>0.00839686310603855</v>
       </c>
       <c r="D86">
-        <v>-0.06420708127705602</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.03460661011994794</v>
+      </c>
+      <c r="E86">
+        <v>-0.04317238944220338</v>
+      </c>
+      <c r="F86">
+        <v>0.03465583476349898</v>
+      </c>
+      <c r="G86">
+        <v>-0.03887351217708609</v>
+      </c>
+      <c r="H86">
+        <v>0.02910357447767018</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.1231347210189153</v>
+        <v>0.125990110987365</v>
       </c>
       <c r="C87">
-        <v>0.06589528449251217</v>
+        <v>0.03278225489804177</v>
       </c>
       <c r="D87">
-        <v>-0.07195554134566158</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.0677784574199773</v>
+      </c>
+      <c r="E87">
+        <v>-0.02402964708069237</v>
+      </c>
+      <c r="F87">
+        <v>0.01867918535996376</v>
+      </c>
+      <c r="G87">
+        <v>0.1277580732428355</v>
+      </c>
+      <c r="H87">
+        <v>0.07007914138879311</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.05349033727172222</v>
+        <v>0.06215318304078638</v>
       </c>
       <c r="C88">
-        <v>0.02817233122970336</v>
+        <v>0.01811460222299771</v>
       </c>
       <c r="D88">
-        <v>-0.02635734551224269</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.03881868059939704</v>
+      </c>
+      <c r="E88">
+        <v>-0.01543218268449023</v>
+      </c>
+      <c r="F88">
+        <v>0.01253666103965626</v>
+      </c>
+      <c r="G88">
+        <v>0.0128322732132228</v>
+      </c>
+      <c r="H88">
+        <v>-0.04334283123157438</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.09145354571683355</v>
+        <v>0.1049994626801535</v>
       </c>
       <c r="C89">
-        <v>0.07202476004347737</v>
+        <v>0.1105470979808853</v>
       </c>
       <c r="D89">
-        <v>0.3338557936481258</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.3411196126976178</v>
+      </c>
+      <c r="E89">
+        <v>-0.07388017149447085</v>
+      </c>
+      <c r="F89">
+        <v>0.06717224949198707</v>
+      </c>
+      <c r="G89">
+        <v>-0.03122072335299678</v>
+      </c>
+      <c r="H89">
+        <v>-0.007440542214401065</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.07391839945293731</v>
+        <v>0.08446307936113093</v>
       </c>
       <c r="C90">
-        <v>0.06126637746427679</v>
+        <v>0.09311193622309437</v>
       </c>
       <c r="D90">
-        <v>0.28277448740657</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.2828994214493407</v>
+      </c>
+      <c r="E90">
+        <v>-0.05243790468467366</v>
+      </c>
+      <c r="F90">
+        <v>0.03432812698252478</v>
+      </c>
+      <c r="G90">
+        <v>0.02144120851497682</v>
+      </c>
+      <c r="H90">
+        <v>0.01274671948216727</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.08911411609770038</v>
+        <v>0.09156636440869545</v>
       </c>
       <c r="C91">
-        <v>0.04968096519540642</v>
+        <v>0.02852325162128973</v>
       </c>
       <c r="D91">
-        <v>-0.02199543088558082</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.03198722103793752</v>
+      </c>
+      <c r="E91">
+        <v>-0.004651503940889705</v>
+      </c>
+      <c r="F91">
+        <v>-0.002148207554563143</v>
+      </c>
+      <c r="G91">
+        <v>-0.02825943343410542</v>
+      </c>
+      <c r="H91">
+        <v>-0.09183103307288117</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.07741643530324815</v>
+        <v>0.08781052244386872</v>
       </c>
       <c r="C92">
-        <v>0.07601594838667321</v>
+        <v>0.1147125466054627</v>
       </c>
       <c r="D92">
-        <v>0.3409192678330726</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.3372992181480706</v>
+      </c>
+      <c r="E92">
+        <v>-0.04664314886956244</v>
+      </c>
+      <c r="F92">
+        <v>0.03609469542157363</v>
+      </c>
+      <c r="G92">
+        <v>0.006800043996395968</v>
+      </c>
+      <c r="H92">
+        <v>-0.01075008178445469</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.06699727580448016</v>
+        <v>0.08107882928883961</v>
       </c>
       <c r="C93">
-        <v>0.06571593942333405</v>
+        <v>0.1038397326750517</v>
       </c>
       <c r="D93">
-        <v>0.2992156732347298</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.2978491093830766</v>
+      </c>
+      <c r="E93">
+        <v>-0.02774567721384955</v>
+      </c>
+      <c r="F93">
+        <v>0.03089065764698616</v>
+      </c>
+      <c r="G93">
+        <v>0.01057244474767938</v>
+      </c>
+      <c r="H93">
+        <v>0.003001558075641802</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.1350478674710201</v>
+        <v>0.1294909483827467</v>
       </c>
       <c r="C94">
-        <v>0.04309441784815572</v>
+        <v>0.01076498540426513</v>
       </c>
       <c r="D94">
-        <v>-0.04097573136963076</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.04932734986951335</v>
+      </c>
+      <c r="E94">
+        <v>0.01929273562309724</v>
+      </c>
+      <c r="F94">
+        <v>0.01282844604475652</v>
+      </c>
+      <c r="G94">
+        <v>-0.0501950674320732</v>
+      </c>
+      <c r="H94">
+        <v>-0.1149993749237332</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.1207364201202229</v>
+        <v>0.1290157551250601</v>
       </c>
       <c r="C95">
-        <v>0.01940723356720137</v>
+        <v>-0.005346017491167684</v>
       </c>
       <c r="D95">
-        <v>-0.05457716048410893</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.06257290881123573</v>
+      </c>
+      <c r="E95">
+        <v>-0.007259523593590072</v>
+      </c>
+      <c r="F95">
+        <v>0.0567409584056499</v>
+      </c>
+      <c r="G95">
+        <v>0.0293385496722723</v>
+      </c>
+      <c r="H95">
+        <v>0.04110803499428501</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3187,100 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>-0.2168771630793469</v>
+        <v>0.1976748221043831</v>
       </c>
       <c r="C97">
-        <v>0.04139008538215737</v>
+        <v>-0.001899739722889207</v>
       </c>
       <c r="D97">
-        <v>0.08901714894040452</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.07131933431745154</v>
+      </c>
+      <c r="E97">
+        <v>0.1244676289279145</v>
+      </c>
+      <c r="F97">
+        <v>-0.9213159667185306</v>
+      </c>
+      <c r="G97">
+        <v>0.09469632230588866</v>
+      </c>
+      <c r="H97">
+        <v>0.02816865492139984</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.2445605653886322</v>
+        <v>0.2736785936570129</v>
       </c>
       <c r="C98">
-        <v>0.05387971642903088</v>
+        <v>0.01609571148303515</v>
       </c>
       <c r="D98">
-        <v>-0.02259988041045801</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.04894998275604558</v>
+      </c>
+      <c r="E98">
+        <v>0.2028537103530953</v>
+      </c>
+      <c r="F98">
+        <v>0.04880596581003927</v>
+      </c>
+      <c r="G98">
+        <v>-0.2851044012673512</v>
+      </c>
+      <c r="H98">
+        <v>0.1707151482907894</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>-0.3939583831861375</v>
+        <v>0.2605413055242758</v>
       </c>
       <c r="C99">
-        <v>-0.900608228998756</v>
+        <v>-0.9247011380009088</v>
       </c>
       <c r="D99">
-        <v>0.06363327958214667</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.2070461052397821</v>
+      </c>
+      <c r="E99">
+        <v>-0.06942838337119865</v>
+      </c>
+      <c r="F99">
+        <v>0.05935687827010992</v>
+      </c>
+      <c r="G99">
+        <v>-0.01017692732632274</v>
+      </c>
+      <c r="H99">
+        <v>-0.07535706932177978</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3291,48 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.04363341776752035</v>
+        <v>0.04787895520504284</v>
       </c>
       <c r="C101">
-        <v>0.02954165860829165</v>
+        <v>0.02417142783415485</v>
       </c>
       <c r="D101">
-        <v>-0.008472114632459659</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.0108203382517817</v>
+      </c>
+      <c r="E101">
+        <v>-0.06399961386211606</v>
+      </c>
+      <c r="F101">
+        <v>0.01320850230840906</v>
+      </c>
+      <c r="G101">
+        <v>0.00209273854682159</v>
+      </c>
+      <c r="H101">
+        <v>-0.07147115635393664</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3343,22 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
